--- a/progress/the-difference-engine.xlsx
+++ b/progress/the-difference-engine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quique\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trabajo\bracket-asu\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -83,12 +83,6 @@
     <t xml:space="preserve">     /templates/team-members.html</t>
   </si>
   <si>
-    <t xml:space="preserve">     /templates/about.html</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
     <t xml:space="preserve">     /projects/womens-power-index/criteria-methodology.html</t>
   </si>
   <si>
@@ -114,6 +108,9 @@
   </si>
   <si>
     <t>/templates/partners.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /projects/womens-power-index/about-us</t>
   </si>
 </sst>
 </file>
@@ -227,32 +224,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,13 +535,13 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="1"/>
@@ -556,208 +553,208 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/progress/the-difference-engine.xlsx
+++ b/progress/the-difference-engine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -111,13 +111,37 @@
   </si>
   <si>
     <t xml:space="preserve">     /projects/womens-power-index/about-us</t>
+  </si>
+  <si>
+    <t>Maquetada</t>
+  </si>
+  <si>
+    <t>comienzo</t>
+  </si>
+  <si>
+    <t>en desarrollo</t>
+  </si>
+  <si>
+    <t>REF:</t>
+  </si>
+  <si>
+    <t>PENDIENTES</t>
+  </si>
+  <si>
+    <t>Unificar el main</t>
+  </si>
+  <si>
+    <t>verificar las url's</t>
+  </si>
+  <si>
+    <t>optimizar css modular hero + bloques de contenido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +200,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +219,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,6 +300,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -532,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -544,7 +621,8 @@
     <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
     <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -557,6 +635,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="10"/>
+      <c r="F2" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -569,114 +655,123 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="F5" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="F6" s="17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -709,24 +804,24 @@
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -741,20 +836,40 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/progress/the-difference-engine.xlsx
+++ b/progress/the-difference-engine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trabajo\bracket-asu\progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\bracket-asu\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -135,13 +135,22 @@
   </si>
   <si>
     <t>optimizar css modular hero + bloques de contenido</t>
+  </si>
+  <si>
+    <t>hacer buttons en womens-power - video</t>
+  </si>
+  <si>
+    <t>image container optimizar</t>
+  </si>
+  <si>
+    <t>text format optimizar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +217,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -269,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -298,35 +314,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,42 +628,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="58.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="19"/>
+      <c r="F2" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,125 +674,125 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="F5" s="18" t="s">
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="F5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="17" t="s">
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="F6" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -783,7 +802,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -793,7 +812,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -803,27 +822,27 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="B18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -835,40 +854,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/progress/the-difference-engine.xlsx
+++ b/progress/the-difference-engine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\bracket-asu\progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\trabajo\bracket-asu\progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>text format optimizar</t>
+  </si>
+  <si>
+    <t>/projects/supercharger/who-should-apply</t>
+  </si>
+  <si>
+    <t>/projects/supercharger/why-supercharger</t>
+  </si>
+  <si>
+    <t>grillas aparte</t>
   </si>
 </sst>
 </file>
@@ -341,10 +350,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,42 +637,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="58.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="20"/>
       <c r="F2" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -678,7 +687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -694,7 +703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
@@ -707,7 +716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -717,7 +726,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -730,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -740,7 +749,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
@@ -752,7 +761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
@@ -762,7 +771,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
@@ -772,7 +781,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
@@ -782,7 +791,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>28</v>
       </c>
@@ -792,7 +801,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -802,7 +811,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -812,7 +821,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -822,7 +831,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
@@ -832,31 +841,29 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
+    <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>10</v>
@@ -864,45 +871,72 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/progress/the-difference-engine.xlsx
+++ b/progress/the-difference-engine.xlsx
@@ -101,9 +101,6 @@
     <t>/templates/news-and-events.html</t>
   </si>
   <si>
-    <t xml:space="preserve">    /templates/news-and-events.html</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>grillas aparte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /templates/news-and-events-single.html</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="C2" s="20"/>
       <c r="F2" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +697,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="F5" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="F6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>22</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>22</v>
@@ -872,20 +872,20 @@
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>10</v>
@@ -901,42 +901,42 @@
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/progress/the-difference-engine.xlsx
+++ b/progress/the-difference-engine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>THE DIFFERENCE ENGINE</t>
   </si>
@@ -101,9 +101,6 @@
     <t>/templates/news-and-events.html</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>/templates/partners.html</t>
   </si>
   <si>
@@ -143,16 +140,22 @@
     <t>text format optimizar</t>
   </si>
   <si>
-    <t>/projects/supercharger/who-should-apply</t>
-  </si>
-  <si>
-    <t>/projects/supercharger/why-supercharger</t>
-  </si>
-  <si>
     <t>grillas aparte</t>
   </si>
   <si>
     <t xml:space="preserve">    /templates/news-and-events-single.html</t>
+  </si>
+  <si>
+    <t>png a jpg y tamaños</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /templates/projects/supercharger/who-should-apply.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     /templates/projects/supercharger/why-supercharger.html</t>
+  </si>
+  <si>
+    <t>single</t>
   </si>
 </sst>
 </file>
@@ -637,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -664,7 +667,7 @@
       </c>
       <c r="C2" s="20"/>
       <c r="F2" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +700,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="F5" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
@@ -713,7 +716,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="F6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +796,7 @@
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>10</v>
@@ -842,24 +845,24 @@
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -873,19 +876,19 @@
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>10</v>
@@ -901,42 +904,47 @@
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
